--- a/lib/exps/healy_2010_rcm_n-c4h10_phi1_20bar.xlsx
+++ b/lib/exps/healy_2010_rcm_n-c4h10_phi1_20bar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/exps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton_mulvihill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8AA394-ACCD-9241-9440-94781FFEA655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0408A19D-34A2-4F4E-AF39-C1B2B57A5B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20380" xr2:uid="{E8268F29-D532-4F4A-8DC7-DD2C0037AE91}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:CH29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
